--- a/test_files/QuestionBank-Template-Exhibition-Test.xlsx
+++ b/test_files/QuestionBank-Template-Exhibition-Test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julia/Desktop/SP1/SeniorProject1/test_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Assumption University\Senior Project 1\SeniorProject1\test_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D47659D4-78A1-0F4E-92C6-FF97201AA707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E1DFDF-69BB-4BCA-BECB-76C21EEDCA29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17260" activeTab="3" xr2:uid="{EFFFEAF5-3877-4B94-88A7-1185D1104C50}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{EFFFEAF5-3877-4B94-88A7-1185D1104C50}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="657">
   <si>
     <t>T</t>
   </si>
@@ -523,9 +523,6 @@
     <t>beach.png</t>
   </si>
   <si>
-    <t>Which of oneis a natural place?</t>
-  </si>
-  <si>
     <t>Humans have five senses.</t>
   </si>
   <si>
@@ -713,6 +710,1308 @@
   </si>
   <si>
     <t>Water</t>
+  </si>
+  <si>
+    <t>What color is a ripe banana?</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Yellow</t>
+  </si>
+  <si>
+    <t>Purple</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>banana.png</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>Which planet is closest to the Sun?</t>
+  </si>
+  <si>
+    <t>Venus</t>
+  </si>
+  <si>
+    <t>Mercury</t>
+  </si>
+  <si>
+    <t>Earth</t>
+  </si>
+  <si>
+    <t>Mars</t>
+  </si>
+  <si>
+    <t>Jupiter</t>
+  </si>
+  <si>
+    <t>mercury.png</t>
+  </si>
+  <si>
+    <t>space</t>
+  </si>
+  <si>
+    <t>What do bees produce?</t>
+  </si>
+  <si>
+    <t>Milk</t>
+  </si>
+  <si>
+    <t>Honey</t>
+  </si>
+  <si>
+    <t>Butter</t>
+  </si>
+  <si>
+    <t>Oil</t>
+  </si>
+  <si>
+    <t>bee.png</t>
+  </si>
+  <si>
+    <t>Which shape has 4 equal sides?</t>
+  </si>
+  <si>
+    <t>Circle</t>
+  </si>
+  <si>
+    <t>Rectangle</t>
+  </si>
+  <si>
+    <t>Square</t>
+  </si>
+  <si>
+    <t>Triangle</t>
+  </si>
+  <si>
+    <t>Pentagon</t>
+  </si>
+  <si>
+    <t>square.png</t>
+  </si>
+  <si>
+    <t>geometry</t>
+  </si>
+  <si>
+    <t>Which month has 28 or 29 days?</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>calendar.png</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>What do we use to measure temperature?</t>
+  </si>
+  <si>
+    <t>Thermometer</t>
+  </si>
+  <si>
+    <t>Ruler</t>
+  </si>
+  <si>
+    <t>Scale</t>
+  </si>
+  <si>
+    <t>Stopwatch</t>
+  </si>
+  <si>
+    <t>Compass</t>
+  </si>
+  <si>
+    <t>thermometer.png</t>
+  </si>
+  <si>
+    <t>Which gas do plants produce during photosynthesis?</t>
+  </si>
+  <si>
+    <t>Oxygen</t>
+  </si>
+  <si>
+    <t>Carbon Dioxide</t>
+  </si>
+  <si>
+    <t>Nitrogen</t>
+  </si>
+  <si>
+    <t>Helium</t>
+  </si>
+  <si>
+    <t>Hydrogen</t>
+  </si>
+  <si>
+    <t>plants.png</t>
+  </si>
+  <si>
+    <t>Which continent is the largest?</t>
+  </si>
+  <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <t>Asia</t>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
+    <t>North America</t>
+  </si>
+  <si>
+    <t>Antarctica</t>
+  </si>
+  <si>
+    <t>asia.png</t>
+  </si>
+  <si>
+    <t>What does a caterpillar turn into?</t>
+  </si>
+  <si>
+    <t>Butterfly</t>
+  </si>
+  <si>
+    <t>Spider</t>
+  </si>
+  <si>
+    <t>butterfly.png</t>
+  </si>
+  <si>
+    <t>Which country is famous for the Eiffel Tower?</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>eiffel.png</t>
+  </si>
+  <si>
+    <t>Which ocean is the biggest?</t>
+  </si>
+  <si>
+    <t>Indian</t>
+  </si>
+  <si>
+    <t>Arctic</t>
+  </si>
+  <si>
+    <t>Pacific</t>
+  </si>
+  <si>
+    <t>Atlantic</t>
+  </si>
+  <si>
+    <t>Southern</t>
+  </si>
+  <si>
+    <t>ocean.png</t>
+  </si>
+  <si>
+    <t>What is H2O commonly known as?</t>
+  </si>
+  <si>
+    <t>Air</t>
+  </si>
+  <si>
+    <t>Salt</t>
+  </si>
+  <si>
+    <t>water.png</t>
+  </si>
+  <si>
+    <t>Which animal is known as the King of the Jungle?</t>
+  </si>
+  <si>
+    <t>Tiger</t>
+  </si>
+  <si>
+    <t>Lion</t>
+  </si>
+  <si>
+    <t>Panther</t>
+  </si>
+  <si>
+    <t>Leopard</t>
+  </si>
+  <si>
+    <t>lion.png</t>
+  </si>
+  <si>
+    <t>What is 10 × 5?</t>
+  </si>
+  <si>
+    <t>math.png</t>
+  </si>
+  <si>
+    <t>math</t>
+  </si>
+  <si>
+    <t>Which instrument has keys, pedals, and strings?</t>
+  </si>
+  <si>
+    <t>Drum</t>
+  </si>
+  <si>
+    <t>Flute</t>
+  </si>
+  <si>
+    <t>Piano</t>
+  </si>
+  <si>
+    <t>Violin</t>
+  </si>
+  <si>
+    <t>Guitar</t>
+  </si>
+  <si>
+    <t>piano.png</t>
+  </si>
+  <si>
+    <t>music</t>
+  </si>
+  <si>
+    <t>Which direction does the sun rise from?</t>
+  </si>
+  <si>
+    <t>North</t>
+  </si>
+  <si>
+    <t>South</t>
+  </si>
+  <si>
+    <t>East</t>
+  </si>
+  <si>
+    <t>West</t>
+  </si>
+  <si>
+    <t>sunrise.png</t>
+  </si>
+  <si>
+    <t>What is the capital city of Japan?</t>
+  </si>
+  <si>
+    <t>Beijing</t>
+  </si>
+  <si>
+    <t>Seoul</t>
+  </si>
+  <si>
+    <t>Tokyo</t>
+  </si>
+  <si>
+    <t>Bangkok</t>
+  </si>
+  <si>
+    <t>Manila</t>
+  </si>
+  <si>
+    <t>tokyo.png</t>
+  </si>
+  <si>
+    <t>biology</t>
+  </si>
+  <si>
+    <t>Diwali</t>
+  </si>
+  <si>
+    <t>Christmas</t>
+  </si>
+  <si>
+    <t>Halloween</t>
+  </si>
+  <si>
+    <t>Easter</t>
+  </si>
+  <si>
+    <t>culture</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>Which device is used to make phone calls?</t>
+  </si>
+  <si>
+    <t>Television</t>
+  </si>
+  <si>
+    <t>Radio</t>
+  </si>
+  <si>
+    <t>Mobile Phone</t>
+  </si>
+  <si>
+    <t>Computer</t>
+  </si>
+  <si>
+    <t>Camera</t>
+  </si>
+  <si>
+    <t>phone.png</t>
+  </si>
+  <si>
+    <t>technology</t>
+  </si>
+  <si>
+    <t>Which animal gives us wool?</t>
+  </si>
+  <si>
+    <t>Cow</t>
+  </si>
+  <si>
+    <t>Sheep</t>
+  </si>
+  <si>
+    <t>Goat</t>
+  </si>
+  <si>
+    <t>sheep.png</t>
+  </si>
+  <si>
+    <t>Which is the fastest land animal?</t>
+  </si>
+  <si>
+    <t>Cheetah</t>
+  </si>
+  <si>
+    <t>Deer</t>
+  </si>
+  <si>
+    <t>cheetah.png</t>
+  </si>
+  <si>
+    <t>Which instrument measures time?</t>
+  </si>
+  <si>
+    <t>Barometer</t>
+  </si>
+  <si>
+    <t>Clock</t>
+  </si>
+  <si>
+    <t>clock.png</t>
+  </si>
+  <si>
+    <t>Which shape has no corners?</t>
+  </si>
+  <si>
+    <t>circle.png</t>
+  </si>
+  <si>
+    <t>Which is the largest planet in our solar system?</t>
+  </si>
+  <si>
+    <t>Saturn</t>
+  </si>
+  <si>
+    <t>jupiter.png</t>
+  </si>
+  <si>
+    <t>Which animal has a trunk?</t>
+  </si>
+  <si>
+    <t>Giraffe</t>
+  </si>
+  <si>
+    <t>elephant.png</t>
+  </si>
+  <si>
+    <t>What do we wear on our feet?</t>
+  </si>
+  <si>
+    <t>Gloves</t>
+  </si>
+  <si>
+    <t>Scarf</t>
+  </si>
+  <si>
+    <t>Ring</t>
+  </si>
+  <si>
+    <t>shoes.png</t>
+  </si>
+  <si>
+    <t>fashion</t>
+  </si>
+  <si>
+    <t>Which natural satellite orbits Earth?</t>
+  </si>
+  <si>
+    <t>Star</t>
+  </si>
+  <si>
+    <t>moon.png</t>
+  </si>
+  <si>
+    <t>Which food is high in calcium?</t>
+  </si>
+  <si>
+    <t>milk.png</t>
+  </si>
+  <si>
+    <t>What do we use to write on paper?</t>
+  </si>
+  <si>
+    <t>Brush</t>
+  </si>
+  <si>
+    <t>Knife</t>
+  </si>
+  <si>
+    <t>pen.png</t>
+  </si>
+  <si>
+    <t>school</t>
+  </si>
+  <si>
+    <t>Which animal lives in Antarctica?</t>
+  </si>
+  <si>
+    <t>Penguin</t>
+  </si>
+  <si>
+    <t>penguin.png</t>
+  </si>
+  <si>
+    <t>Which part of a plant absorbs water?</t>
+  </si>
+  <si>
+    <t>Leaf</t>
+  </si>
+  <si>
+    <t>Root</t>
+  </si>
+  <si>
+    <t>Stem</t>
+  </si>
+  <si>
+    <t>Flower</t>
+  </si>
+  <si>
+    <t>Fruit</t>
+  </si>
+  <si>
+    <t>roots.png</t>
+  </si>
+  <si>
+    <t>Which festival is celebrated on December 25?</t>
+  </si>
+  <si>
+    <t>New Year</t>
+  </si>
+  <si>
+    <t>christmas.png</t>
+  </si>
+  <si>
+    <t>What is 15 + 25?</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>addition.png</t>
+  </si>
+  <si>
+    <t>Which is the smallest continent?</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>South America</t>
+  </si>
+  <si>
+    <t>australia.png</t>
+  </si>
+  <si>
+    <t>What do you use to take a picture?</t>
+  </si>
+  <si>
+    <t>Microscope</t>
+  </si>
+  <si>
+    <t>Telescope</t>
+  </si>
+  <si>
+    <t>Monitor</t>
+  </si>
+  <si>
+    <t>Drone</t>
+  </si>
+  <si>
+    <t>camera.png</t>
+  </si>
+  <si>
+    <t>Which is used to access the internet?</t>
+  </si>
+  <si>
+    <t>Keyboard</t>
+  </si>
+  <si>
+    <t>Mouse</t>
+  </si>
+  <si>
+    <t>Browser</t>
+  </si>
+  <si>
+    <t>Printer</t>
+  </si>
+  <si>
+    <t>Scanner</t>
+  </si>
+  <si>
+    <t>browser.png</t>
+  </si>
+  <si>
+    <t>Which animal can change its color?</t>
+  </si>
+  <si>
+    <t>Chameleon</t>
+  </si>
+  <si>
+    <t>Rabbit</t>
+  </si>
+  <si>
+    <t>chameleon.png</t>
+  </si>
+  <si>
+    <t>Which organ pumps blood in the body?</t>
+  </si>
+  <si>
+    <t>Lungs</t>
+  </si>
+  <si>
+    <t>Brain</t>
+  </si>
+  <si>
+    <t>Heart</t>
+  </si>
+  <si>
+    <t>Kidney</t>
+  </si>
+  <si>
+    <t>heart.png</t>
+  </si>
+  <si>
+    <t>oxygen.png</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>weather</t>
+  </si>
+  <si>
+    <t>Which of these is a programming language?</t>
+  </si>
+  <si>
+    <t>Microsoft</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>Firefox</t>
+  </si>
+  <si>
+    <t>Windows</t>
+  </si>
+  <si>
+    <t>python.png</t>
+  </si>
+  <si>
+    <t>Which continent is Egypt in?</t>
+  </si>
+  <si>
+    <t>egypt.png</t>
+  </si>
+  <si>
+    <t>Which of these is a vegetable?</t>
+  </si>
+  <si>
+    <t>carrot.png</t>
+  </si>
+  <si>
+    <t>Which color is obtained by mixing blue and yellow?</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>Brown</t>
+  </si>
+  <si>
+    <t>Pink</t>
+  </si>
+  <si>
+    <t>green.png</t>
+  </si>
+  <si>
+    <t>art</t>
+  </si>
+  <si>
+    <t>Which of these is a musical instrument?</t>
+  </si>
+  <si>
+    <t>Hammer</t>
+  </si>
+  <si>
+    <t>Wrench</t>
+  </si>
+  <si>
+    <t>Stapler</t>
+  </si>
+  <si>
+    <t>guitar.png</t>
+  </si>
+  <si>
+    <t>Which season comes after spring?</t>
+  </si>
+  <si>
+    <t>Winter</t>
+  </si>
+  <si>
+    <t>Autumn</t>
+  </si>
+  <si>
+    <t>Summer</t>
+  </si>
+  <si>
+    <t>Fall</t>
+  </si>
+  <si>
+    <t>Monsoon</t>
+  </si>
+  <si>
+    <t>summer.png</t>
+  </si>
+  <si>
+    <t>Which of these is a shape with 3 sides?</t>
+  </si>
+  <si>
+    <t>Hexagon</t>
+  </si>
+  <si>
+    <t>triangle.png</t>
+  </si>
+  <si>
+    <t>Which city is known as the Big Apple?</t>
+  </si>
+  <si>
+    <t>Los Angeles</t>
+  </si>
+  <si>
+    <t>Chicago</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>Boston</t>
+  </si>
+  <si>
+    <t>Miami</t>
+  </si>
+  <si>
+    <t>newyork.png</t>
+  </si>
+  <si>
+    <t>Which of these is a renewable energy source?</t>
+  </si>
+  <si>
+    <t>Coal</t>
+  </si>
+  <si>
+    <t>Solar</t>
+  </si>
+  <si>
+    <t>Natural Gas</t>
+  </si>
+  <si>
+    <t>Gasoline</t>
+  </si>
+  <si>
+    <t>solar.png</t>
+  </si>
+  <si>
+    <t>Which ocean is the largest?</t>
+  </si>
+  <si>
+    <t>pacific.png</t>
+  </si>
+  <si>
+    <t>Which of these is a type of cloud?</t>
+  </si>
+  <si>
+    <t>Nimbus</t>
+  </si>
+  <si>
+    <t>Thunder</t>
+  </si>
+  <si>
+    <t>Lightning</t>
+  </si>
+  <si>
+    <t>Rainbow</t>
+  </si>
+  <si>
+    <t>Sunshine</t>
+  </si>
+  <si>
+    <t>nimbus.png</t>
+  </si>
+  <si>
+    <t>Which element has the symbol 'O'?</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>Iron</t>
+  </si>
+  <si>
+    <t>Silver</t>
+  </si>
+  <si>
+    <t>Carbon</t>
+  </si>
+  <si>
+    <t>Which sport uses a shuttlecock?</t>
+  </si>
+  <si>
+    <t>Tennis</t>
+  </si>
+  <si>
+    <t>Badminton</t>
+  </si>
+  <si>
+    <t>Squash</t>
+  </si>
+  <si>
+    <t>Table Tennis</t>
+  </si>
+  <si>
+    <t>Volleyball</t>
+  </si>
+  <si>
+    <t>badminton.png</t>
+  </si>
+  <si>
+    <t>sports</t>
+  </si>
+  <si>
+    <t>Which of these is a prime number?</t>
+  </si>
+  <si>
+    <t>seven.png</t>
+  </si>
+  <si>
+    <t>Which country has the Eiffel Tower?</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Which of these is a dairy product?</t>
+  </si>
+  <si>
+    <t>Cheese</t>
+  </si>
+  <si>
+    <t>Jam</t>
+  </si>
+  <si>
+    <t>Peanut Butter</t>
+  </si>
+  <si>
+    <t>Olive Oil</t>
+  </si>
+  <si>
+    <t>cheese.png</t>
+  </si>
+  <si>
+    <t>Which organ pumps blood in the human body?</t>
+  </si>
+  <si>
+    <t>Which of these is a deciduous tree?</t>
+  </si>
+  <si>
+    <t>Pine</t>
+  </si>
+  <si>
+    <t>Oak</t>
+  </si>
+  <si>
+    <t>Spruce</t>
+  </si>
+  <si>
+    <t>Cedar</t>
+  </si>
+  <si>
+    <t>Fir</t>
+  </si>
+  <si>
+    <t>oak.png</t>
+  </si>
+  <si>
+    <t>Which measurement unit is used for temperature?</t>
+  </si>
+  <si>
+    <t>Meter</t>
+  </si>
+  <si>
+    <t>Kilogram</t>
+  </si>
+  <si>
+    <t>Celsius</t>
+  </si>
+  <si>
+    <t>Liter</t>
+  </si>
+  <si>
+    <t>Watt</t>
+  </si>
+  <si>
+    <t>celsius.png</t>
+  </si>
+  <si>
+    <t>Which of these is a search engine?</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>Netflix</t>
+  </si>
+  <si>
+    <t>Spotify</t>
+  </si>
+  <si>
+    <t>Instagram</t>
+  </si>
+  <si>
+    <t>google.png</t>
+  </si>
+  <si>
+    <t>Which day comes after Wednesday?</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>thursday.png</t>
+  </si>
+  <si>
+    <t>general</t>
+  </si>
+  <si>
+    <t>Which of these is a root vegetable?</t>
+  </si>
+  <si>
+    <t>Potato</t>
+  </si>
+  <si>
+    <t>Cucumber</t>
+  </si>
+  <si>
+    <t>Pepper</t>
+  </si>
+  <si>
+    <t>potato.png</t>
+  </si>
+  <si>
+    <t>o2.png</t>
+  </si>
+  <si>
+    <t>Which of these is a carnivorous animal?</t>
+  </si>
+  <si>
+    <t>Which direction does the sun rise?</t>
+  </si>
+  <si>
+    <t>Northeast</t>
+  </si>
+  <si>
+    <t>Which of these is a type of pasta?</t>
+  </si>
+  <si>
+    <t>Naan</t>
+  </si>
+  <si>
+    <t>Tortilla</t>
+  </si>
+  <si>
+    <t>Bagel</t>
+  </si>
+  <si>
+    <t>Croissant</t>
+  </si>
+  <si>
+    <t>spaghetti.png</t>
+  </si>
+  <si>
+    <t>Which metal is liquid at room temperature?</t>
+  </si>
+  <si>
+    <t>Copper</t>
+  </si>
+  <si>
+    <t>mercury_m.png</t>
+  </si>
+  <si>
+    <t>Which of these is a reptile?</t>
+  </si>
+  <si>
+    <t>Whale</t>
+  </si>
+  <si>
+    <t>Bat</t>
+  </si>
+  <si>
+    <t>snake.png</t>
+  </si>
+  <si>
+    <t>Which invention is attributed to Alexander Graham Bell?</t>
+  </si>
+  <si>
+    <t>Light Bulb</t>
+  </si>
+  <si>
+    <t>Telephone</t>
+  </si>
+  <si>
+    <t>telephone.png</t>
+  </si>
+  <si>
+    <t>Which of these is a natural satellite?</t>
+  </si>
+  <si>
+    <t>Which fruit is known for having seeds on the outside?</t>
+  </si>
+  <si>
+    <t>Strawberry</t>
+  </si>
+  <si>
+    <t>Grape</t>
+  </si>
+  <si>
+    <t>strawberry.png</t>
+  </si>
+  <si>
+    <t>Which of these is an amphibian?</t>
+  </si>
+  <si>
+    <t>Toad</t>
+  </si>
+  <si>
+    <t>Crocodile</t>
+  </si>
+  <si>
+    <t>Turtle</t>
+  </si>
+  <si>
+    <t>toad.png</t>
+  </si>
+  <si>
+    <t>Which instrument measures earthquakes?</t>
+  </si>
+  <si>
+    <t>Seismograph</t>
+  </si>
+  <si>
+    <t>Anemometer</t>
+  </si>
+  <si>
+    <t>Hygrometer</t>
+  </si>
+  <si>
+    <t>seismograph.png</t>
+  </si>
+  <si>
+    <t>Which of these is a citrus fruit?</t>
+  </si>
+  <si>
+    <t>Peach</t>
+  </si>
+  <si>
+    <t>Lemon</t>
+  </si>
+  <si>
+    <t>Cherry</t>
+  </si>
+  <si>
+    <t>Plum</t>
+  </si>
+  <si>
+    <t>lemon.png</t>
+  </si>
+  <si>
+    <t>Which chess piece can only move diagonally?</t>
+  </si>
+  <si>
+    <t>Rook</t>
+  </si>
+  <si>
+    <t>Knight</t>
+  </si>
+  <si>
+    <t>Bishop</t>
+  </si>
+  <si>
+    <t>Queen</t>
+  </si>
+  <si>
+    <t>King</t>
+  </si>
+  <si>
+    <t>bishop.png</t>
+  </si>
+  <si>
+    <t>games</t>
+  </si>
+  <si>
+    <t>Which layer of Earth's atmosphere is closest to the surface?</t>
+  </si>
+  <si>
+    <t>Stratosphere</t>
+  </si>
+  <si>
+    <t>Mesosphere</t>
+  </si>
+  <si>
+    <t>Troposphere</t>
+  </si>
+  <si>
+    <t>Thermosphere</t>
+  </si>
+  <si>
+    <t>Exosphere</t>
+  </si>
+  <si>
+    <t>troposphere.png</t>
+  </si>
+  <si>
+    <t>Which of these is a coniferous tree?</t>
+  </si>
+  <si>
+    <t>Maple</t>
+  </si>
+  <si>
+    <t>Birch</t>
+  </si>
+  <si>
+    <t>Willow</t>
+  </si>
+  <si>
+    <t>Ash</t>
+  </si>
+  <si>
+    <t>pine.png</t>
+  </si>
+  <si>
+    <t>Which organ is responsible for filtering blood?</t>
+  </si>
+  <si>
+    <t>Stomach</t>
+  </si>
+  <si>
+    <t>Pancreas</t>
+  </si>
+  <si>
+    <t>Spleen</t>
+  </si>
+  <si>
+    <t>kidney.png</t>
+  </si>
+  <si>
+    <t>Which of these is a primary color?</t>
+  </si>
+  <si>
+    <t>blue.png</t>
+  </si>
+  <si>
+    <t>Water boils at 100 degrees Celsius at sea level.</t>
+  </si>
+  <si>
+    <t>The sun revolves around the Earth.</t>
+  </si>
+  <si>
+    <t>Humans have 206 bones in their body.</t>
+  </si>
+  <si>
+    <t>Light travels faster than sound.</t>
+  </si>
+  <si>
+    <t>The Earth is flat.</t>
+  </si>
+  <si>
+    <t>Sharks are mammals.</t>
+  </si>
+  <si>
+    <t>The heart is a muscle.</t>
+  </si>
+  <si>
+    <t>Diamonds are made of carbon.</t>
+  </si>
+  <si>
+    <t>Plants produce oxygen during photosynthesis.</t>
+  </si>
+  <si>
+    <t>The speed of light is constant.</t>
+  </si>
+  <si>
+    <t>Mars is known as the Red Planet.</t>
+  </si>
+  <si>
+    <t>Venus is the hottest planet in our solar system.</t>
+  </si>
+  <si>
+    <t>An octopus has three hearts.</t>
+  </si>
+  <si>
+    <t>Penguins can fly.</t>
+  </si>
+  <si>
+    <t>The Amazon River is the longest river in the world.</t>
+  </si>
+  <si>
+    <t>Mount Everest is in the Himalayas.</t>
+  </si>
+  <si>
+    <t>Africa has 54 countries.</t>
+  </si>
+  <si>
+    <t>Japan is located in Europe.</t>
+  </si>
+  <si>
+    <t>Russia is the largest country by area.</t>
+  </si>
+  <si>
+    <t>The Sahara is the largest hot desert.</t>
+  </si>
+  <si>
+    <t>Australia is both a country and a continent.</t>
+  </si>
+  <si>
+    <t>Tokyo is the capital of China.</t>
+  </si>
+  <si>
+    <t>A triangle has four sides.</t>
+  </si>
+  <si>
+    <t>2 + 2 equals 4.</t>
+  </si>
+  <si>
+    <t>The square root of 16 is 4.</t>
+  </si>
+  <si>
+    <t>Pi is exactly 3.14.</t>
+  </si>
+  <si>
+    <t>A right angle measures 90 degrees.</t>
+  </si>
+  <si>
+    <t>Zero is a positive number.</t>
+  </si>
+  <si>
+    <t>7 is a prime number.</t>
+  </si>
+  <si>
+    <t>100 divided by 4 equals 25.</t>
+  </si>
+  <si>
+    <t>The sum of angles in a triangle is 180 degrees.</t>
+  </si>
+  <si>
+    <t>Shakespeare wrote "Romeo and Juliet".</t>
+  </si>
+  <si>
+    <t>literature</t>
+  </si>
+  <si>
+    <t>Harry Potter was written by J.R.R. Tolkien.</t>
+  </si>
+  <si>
+    <t>"1984" was written by George Orwell.</t>
+  </si>
+  <si>
+    <t>The Bible is the most translated book in the world.</t>
+  </si>
+  <si>
+    <t>Basketball was invented in Canada.</t>
+  </si>
+  <si>
+    <t>A soccer team has 11 players on the field.</t>
+  </si>
+  <si>
+    <t>The Olympics are held every 4 years.</t>
+  </si>
+  <si>
+    <t>Tennis is played with a shuttlecock.</t>
   </si>
 </sst>
 </file>
@@ -760,7 +2059,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -772,6 +2071,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1112,14 +2414,14 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1132,10 +2434,10 @@
       </c>
       <c r="Q1" s="3">
         <f ca="1">TODAY()</f>
-        <v>45926</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+        <v>45947</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1151,7 +2453,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>62</v>
       </c>
@@ -1164,10 +2466,10 @@
       </c>
       <c r="Q3">
         <f ca="1">MONTH(Q1)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -1184,7 +2486,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -1201,7 +2503,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="P7">
         <v>2</v>
       </c>
@@ -1212,7 +2514,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -1229,7 +2531,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1246,7 +2548,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -1263,7 +2565,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="P11">
         <v>6</v>
       </c>
@@ -1274,7 +2576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -1292,7 +2594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -1314,7 +2616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="P14">
         <v>9</v>
       </c>
@@ -1325,7 +2627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="P15">
         <v>10</v>
       </c>
@@ -1336,7 +2638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="P16">
         <v>11</v>
       </c>
@@ -1347,7 +2649,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="16:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P17">
         <v>12</v>
       </c>
@@ -1365,19 +2667,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA3C1A04-8C9A-4AB3-92D4-9CFE7C63CA0B}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I106"/>
   <sheetViews>
-    <sheetView zoomScale="137" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="66.5" customWidth="1"/>
-    <col min="2" max="6" width="15.83203125" customWidth="1"/>
+    <col min="1" max="1" width="64.88671875" customWidth="1"/>
+    <col min="2" max="6" width="15.77734375" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" customWidth="1"/>
+    <col min="9" max="9" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -1406,7 +2710,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>117</v>
       </c>
@@ -1435,7 +2739,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>71</v>
       </c>
@@ -1464,7 +2768,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>78</v>
       </c>
@@ -1493,7 +2797,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>85</v>
       </c>
@@ -1522,7 +2826,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>89</v>
       </c>
@@ -1551,7 +2855,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>118</v>
       </c>
@@ -1580,7 +2884,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>71</v>
       </c>
@@ -1609,7 +2913,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>116</v>
       </c>
@@ -1638,7 +2942,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>119</v>
       </c>
@@ -1667,7 +2971,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>125</v>
       </c>
@@ -1696,7 +3000,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>132</v>
       </c>
@@ -1725,7 +3029,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>139</v>
       </c>
@@ -1754,7 +3058,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>146</v>
       </c>
@@ -1783,7 +3087,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>153</v>
       </c>
@@ -1812,7 +3116,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>71</v>
       </c>
@@ -1841,7 +3145,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>78</v>
       </c>
@@ -1870,7 +3174,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>85</v>
       </c>
@@ -1899,7 +3203,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>89</v>
       </c>
@@ -1928,91 +3232,2527 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>119</v>
+        <v>223</v>
       </c>
       <c r="B20" t="s">
-        <v>120</v>
+        <v>224</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
+        <v>225</v>
       </c>
       <c r="D20" t="s">
-        <v>121</v>
+        <v>226</v>
       </c>
       <c r="E20" t="s">
-        <v>122</v>
+        <v>227</v>
       </c>
       <c r="F20" t="s">
-        <v>123</v>
+        <v>228</v>
       </c>
       <c r="G20" t="s">
         <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>124</v>
+        <v>229</v>
       </c>
       <c r="I20" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>231</v>
+      </c>
+      <c r="B21" t="s">
+        <v>232</v>
+      </c>
+      <c r="C21" t="s">
+        <v>233</v>
+      </c>
+      <c r="D21" t="s">
+        <v>234</v>
+      </c>
+      <c r="E21" t="s">
+        <v>235</v>
+      </c>
+      <c r="F21" t="s">
+        <v>236</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" t="s">
+        <v>237</v>
+      </c>
+      <c r="I21" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>239</v>
+      </c>
+      <c r="B22" t="s">
+        <v>240</v>
+      </c>
+      <c r="C22" t="s">
+        <v>241</v>
+      </c>
+      <c r="D22" t="s">
+        <v>134</v>
+      </c>
+      <c r="E22" t="s">
+        <v>242</v>
+      </c>
+      <c r="F22" t="s">
+        <v>243</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" t="s">
+        <v>244</v>
+      </c>
+      <c r="I22" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>245</v>
+      </c>
+      <c r="B23" t="s">
+        <v>246</v>
+      </c>
+      <c r="C23" t="s">
+        <v>247</v>
+      </c>
+      <c r="D23" t="s">
+        <v>248</v>
+      </c>
+      <c r="E23" t="s">
+        <v>249</v>
+      </c>
+      <c r="F23" t="s">
+        <v>250</v>
+      </c>
+      <c r="G23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" t="s">
+        <v>251</v>
+      </c>
+      <c r="I23" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>253</v>
+      </c>
+      <c r="B24" t="s">
+        <v>254</v>
+      </c>
+      <c r="C24" t="s">
+        <v>255</v>
+      </c>
+      <c r="D24" t="s">
+        <v>256</v>
+      </c>
+      <c r="E24" t="s">
+        <v>257</v>
+      </c>
+      <c r="F24" t="s">
+        <v>258</v>
+      </c>
+      <c r="G24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" t="s">
+        <v>259</v>
+      </c>
+      <c r="I24" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>223</v>
+      </c>
+      <c r="B25" t="s">
+        <v>224</v>
+      </c>
+      <c r="C25" t="s">
+        <v>225</v>
+      </c>
+      <c r="D25" t="s">
+        <v>226</v>
+      </c>
+      <c r="E25" t="s">
+        <v>227</v>
+      </c>
+      <c r="F25" t="s">
+        <v>228</v>
+      </c>
+      <c r="G25" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" t="s">
+        <v>229</v>
+      </c>
+      <c r="I25" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>231</v>
+      </c>
+      <c r="B26" t="s">
+        <v>232</v>
+      </c>
+      <c r="C26" t="s">
+        <v>233</v>
+      </c>
+      <c r="D26" t="s">
+        <v>234</v>
+      </c>
+      <c r="E26" t="s">
+        <v>235</v>
+      </c>
+      <c r="F26" t="s">
+        <v>236</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" t="s">
+        <v>237</v>
+      </c>
+      <c r="I26" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>310</v>
+      </c>
+      <c r="B27" t="s">
+        <v>340</v>
+      </c>
+      <c r="C27" t="s">
+        <v>341</v>
+      </c>
+      <c r="D27" t="s">
+        <v>342</v>
+      </c>
+      <c r="E27" t="s">
+        <v>343</v>
+      </c>
+      <c r="F27" t="s">
+        <v>344</v>
+      </c>
+      <c r="G27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" t="s">
+        <v>311</v>
+      </c>
+      <c r="I27" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>239</v>
+      </c>
+      <c r="B28" t="s">
+        <v>240</v>
+      </c>
+      <c r="C28" t="s">
+        <v>241</v>
+      </c>
+      <c r="D28" t="s">
+        <v>134</v>
+      </c>
+      <c r="E28" t="s">
+        <v>242</v>
+      </c>
+      <c r="F28" t="s">
+        <v>243</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" t="s">
+        <v>244</v>
+      </c>
+      <c r="I28" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>245</v>
+      </c>
+      <c r="B29" t="s">
+        <v>246</v>
+      </c>
+      <c r="C29" t="s">
+        <v>247</v>
+      </c>
+      <c r="D29" t="s">
+        <v>248</v>
+      </c>
+      <c r="E29" t="s">
+        <v>249</v>
+      </c>
+      <c r="F29" t="s">
+        <v>250</v>
+      </c>
+      <c r="G29" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" t="s">
+        <v>251</v>
+      </c>
+      <c r="I29" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>253</v>
+      </c>
+      <c r="B30" t="s">
+        <v>254</v>
+      </c>
+      <c r="C30" t="s">
+        <v>255</v>
+      </c>
+      <c r="D30" t="s">
+        <v>256</v>
+      </c>
+      <c r="E30" t="s">
+        <v>257</v>
+      </c>
+      <c r="F30" t="s">
+        <v>258</v>
+      </c>
+      <c r="G30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" t="s">
+        <v>259</v>
+      </c>
+      <c r="I30" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>261</v>
+      </c>
+      <c r="B31" t="s">
+        <v>262</v>
+      </c>
+      <c r="C31" t="s">
+        <v>263</v>
+      </c>
+      <c r="D31" t="s">
+        <v>264</v>
+      </c>
+      <c r="E31" t="s">
+        <v>265</v>
+      </c>
+      <c r="F31" t="s">
+        <v>266</v>
+      </c>
+      <c r="G31" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" t="s">
+        <v>267</v>
+      </c>
+      <c r="I31" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>268</v>
+      </c>
+      <c r="B32" t="s">
+        <v>269</v>
+      </c>
+      <c r="C32" t="s">
+        <v>270</v>
+      </c>
+      <c r="D32" t="s">
+        <v>271</v>
+      </c>
+      <c r="E32" t="s">
+        <v>272</v>
+      </c>
+      <c r="F32" t="s">
+        <v>273</v>
+      </c>
+      <c r="G32" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" t="s">
+        <v>274</v>
+      </c>
+      <c r="I32" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>275</v>
+      </c>
+      <c r="B33" t="s">
+        <v>276</v>
+      </c>
+      <c r="C33" t="s">
+        <v>277</v>
+      </c>
+      <c r="D33" t="s">
+        <v>278</v>
+      </c>
+      <c r="E33" t="s">
+        <v>279</v>
+      </c>
+      <c r="F33" t="s">
+        <v>280</v>
+      </c>
+      <c r="G33" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" t="s">
+        <v>281</v>
+      </c>
+      <c r="I33" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>282</v>
+      </c>
+      <c r="B34" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" t="s">
+        <v>283</v>
+      </c>
+      <c r="E34" t="s">
+        <v>284</v>
+      </c>
+      <c r="F34" t="s">
+        <v>83</v>
+      </c>
+      <c r="G34" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34" t="s">
+        <v>285</v>
+      </c>
+      <c r="I34" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>286</v>
+      </c>
+      <c r="B35" t="s">
+        <v>287</v>
+      </c>
+      <c r="C35" t="s">
+        <v>288</v>
+      </c>
+      <c r="D35" t="s">
+        <v>289</v>
+      </c>
+      <c r="E35" t="s">
+        <v>290</v>
+      </c>
+      <c r="F35" t="s">
+        <v>291</v>
+      </c>
+      <c r="G35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" t="s">
+        <v>292</v>
+      </c>
+      <c r="I35" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>293</v>
+      </c>
+      <c r="B36" t="s">
+        <v>294</v>
+      </c>
+      <c r="C36" t="s">
+        <v>295</v>
+      </c>
+      <c r="D36" t="s">
+        <v>296</v>
+      </c>
+      <c r="E36" t="s">
+        <v>297</v>
+      </c>
+      <c r="F36" t="s">
+        <v>298</v>
+      </c>
+      <c r="G36" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36" t="s">
+        <v>299</v>
+      </c>
+      <c r="I36" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>300</v>
+      </c>
+      <c r="B37" t="s">
+        <v>301</v>
+      </c>
+      <c r="C37" t="s">
+        <v>65</v>
+      </c>
+      <c r="D37" t="s">
+        <v>302</v>
+      </c>
+      <c r="E37" t="s">
+        <v>222</v>
+      </c>
+      <c r="F37" t="s">
+        <v>66</v>
+      </c>
+      <c r="G37" t="s">
+        <v>15</v>
+      </c>
+      <c r="H37" t="s">
+        <v>303</v>
+      </c>
+      <c r="I37" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>304</v>
+      </c>
+      <c r="B38" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38" t="s">
+        <v>305</v>
+      </c>
+      <c r="D38" t="s">
+        <v>306</v>
+      </c>
+      <c r="E38" t="s">
+        <v>307</v>
+      </c>
+      <c r="F38" t="s">
+        <v>308</v>
+      </c>
+      <c r="G38" t="s">
+        <v>14</v>
+      </c>
+      <c r="H38" t="s">
+        <v>309</v>
+      </c>
+      <c r="I38" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>313</v>
+      </c>
+      <c r="B39" t="s">
+        <v>314</v>
+      </c>
+      <c r="C39" t="s">
+        <v>315</v>
+      </c>
+      <c r="D39" t="s">
+        <v>316</v>
+      </c>
+      <c r="E39" t="s">
+        <v>317</v>
+      </c>
+      <c r="F39" t="s">
+        <v>318</v>
+      </c>
+      <c r="G39" t="s">
+        <v>14</v>
+      </c>
+      <c r="H39" t="s">
+        <v>319</v>
+      </c>
+      <c r="I39" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>327</v>
+      </c>
+      <c r="B40" t="s">
+        <v>328</v>
+      </c>
+      <c r="C40" t="s">
+        <v>329</v>
+      </c>
+      <c r="D40" t="s">
+        <v>330</v>
+      </c>
+      <c r="E40" t="s">
+        <v>331</v>
+      </c>
+      <c r="F40" t="s">
+        <v>332</v>
+      </c>
+      <c r="G40" t="s">
+        <v>14</v>
+      </c>
+      <c r="H40" t="s">
+        <v>333</v>
+      </c>
+      <c r="I40" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>321</v>
+      </c>
+      <c r="B41" t="s">
+        <v>322</v>
+      </c>
+      <c r="C41" t="s">
+        <v>323</v>
+      </c>
+      <c r="D41" t="s">
+        <v>324</v>
+      </c>
+      <c r="E41" t="s">
+        <v>325</v>
+      </c>
+      <c r="F41" t="s">
+        <v>25</v>
+      </c>
+      <c r="G41" t="s">
+        <v>14</v>
+      </c>
+      <c r="H41" t="s">
+        <v>326</v>
+      </c>
+      <c r="I41" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>345</v>
+      </c>
+      <c r="B42" t="s">
+        <v>346</v>
+      </c>
+      <c r="C42" t="s">
+        <v>347</v>
+      </c>
+      <c r="D42" t="s">
+        <v>348</v>
+      </c>
+      <c r="E42" t="s">
+        <v>349</v>
+      </c>
+      <c r="F42" t="s">
+        <v>350</v>
+      </c>
+      <c r="G42" t="s">
+        <v>14</v>
+      </c>
+      <c r="H42" t="s">
+        <v>351</v>
+      </c>
+      <c r="I42" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>353</v>
+      </c>
+      <c r="B43" t="s">
+        <v>354</v>
+      </c>
+      <c r="C43" t="s">
+        <v>355</v>
+      </c>
+      <c r="D43" t="s">
+        <v>356</v>
+      </c>
+      <c r="E43" t="s">
+        <v>90</v>
+      </c>
+      <c r="F43" t="s">
+        <v>51</v>
+      </c>
+      <c r="G43" t="s">
+        <v>13</v>
+      </c>
+      <c r="H43" t="s">
+        <v>357</v>
+      </c>
+      <c r="I43" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>358</v>
+      </c>
+      <c r="B44" t="s">
+        <v>306</v>
+      </c>
+      <c r="C44" t="s">
+        <v>92</v>
+      </c>
+      <c r="D44" t="s">
+        <v>359</v>
+      </c>
+      <c r="E44" t="s">
+        <v>305</v>
+      </c>
+      <c r="F44" t="s">
+        <v>360</v>
+      </c>
+      <c r="G44" t="s">
+        <v>14</v>
+      </c>
+      <c r="H44" t="s">
+        <v>361</v>
+      </c>
+      <c r="I44" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>362</v>
+      </c>
+      <c r="B45" t="s">
+        <v>262</v>
+      </c>
+      <c r="C45" t="s">
+        <v>363</v>
+      </c>
+      <c r="D45" t="s">
+        <v>364</v>
+      </c>
+      <c r="E45" t="s">
+        <v>266</v>
+      </c>
+      <c r="F45" t="s">
+        <v>264</v>
+      </c>
+      <c r="G45" t="s">
+        <v>14</v>
+      </c>
+      <c r="H45" t="s">
+        <v>365</v>
+      </c>
+      <c r="I45" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>366</v>
+      </c>
+      <c r="B46" t="s">
+        <v>248</v>
+      </c>
+      <c r="C46" t="s">
+        <v>249</v>
+      </c>
+      <c r="D46" t="s">
+        <v>246</v>
+      </c>
+      <c r="E46" t="s">
+        <v>247</v>
+      </c>
+      <c r="F46" t="s">
+        <v>250</v>
+      </c>
+      <c r="G46" t="s">
+        <v>14</v>
+      </c>
+      <c r="H46" t="s">
+        <v>367</v>
+      </c>
+      <c r="I46" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>368</v>
+      </c>
+      <c r="B47" t="s">
+        <v>234</v>
+      </c>
+      <c r="C47" t="s">
+        <v>235</v>
+      </c>
+      <c r="D47" t="s">
+        <v>236</v>
+      </c>
+      <c r="E47" t="s">
+        <v>369</v>
+      </c>
+      <c r="F47" t="s">
+        <v>232</v>
+      </c>
+      <c r="G47" t="s">
+        <v>14</v>
+      </c>
+      <c r="H47" t="s">
+        <v>370</v>
+      </c>
+      <c r="I47" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>371</v>
+      </c>
+      <c r="B48" t="s">
+        <v>306</v>
+      </c>
+      <c r="C48" t="s">
+        <v>93</v>
+      </c>
+      <c r="D48" t="s">
+        <v>92</v>
+      </c>
+      <c r="E48" t="s">
+        <v>372</v>
+      </c>
+      <c r="F48" t="s">
+        <v>90</v>
+      </c>
+      <c r="G48" t="s">
+        <v>13</v>
+      </c>
+      <c r="H48" t="s">
+        <v>373</v>
+      </c>
+      <c r="I48" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>374</v>
+      </c>
+      <c r="B49" t="s">
+        <v>375</v>
+      </c>
+      <c r="C49" t="s">
+        <v>212</v>
+      </c>
+      <c r="D49" t="s">
+        <v>209</v>
+      </c>
+      <c r="E49" t="s">
+        <v>376</v>
+      </c>
+      <c r="F49" t="s">
+        <v>377</v>
+      </c>
+      <c r="G49" t="s">
+        <v>14</v>
+      </c>
+      <c r="H49" t="s">
+        <v>378</v>
+      </c>
+      <c r="I49" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>380</v>
+      </c>
+      <c r="B50" t="s">
+        <v>235</v>
+      </c>
+      <c r="C50" t="s">
+        <v>232</v>
+      </c>
+      <c r="D50" t="s">
+        <v>214</v>
+      </c>
+      <c r="E50" t="s">
+        <v>217</v>
+      </c>
+      <c r="F50" t="s">
+        <v>381</v>
+      </c>
+      <c r="G50" t="s">
+        <v>14</v>
+      </c>
+      <c r="H50" t="s">
+        <v>382</v>
+      </c>
+      <c r="I50" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>383</v>
+      </c>
+      <c r="B51" t="s">
+        <v>126</v>
+      </c>
+      <c r="C51" t="s">
+        <v>133</v>
+      </c>
+      <c r="D51" t="s">
+        <v>240</v>
+      </c>
+      <c r="E51" t="s">
+        <v>24</v>
+      </c>
+      <c r="F51" t="s">
+        <v>129</v>
+      </c>
+      <c r="G51" t="s">
+        <v>14</v>
+      </c>
+      <c r="H51" t="s">
+        <v>384</v>
+      </c>
+      <c r="I51" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>385</v>
+      </c>
+      <c r="B52" t="s">
+        <v>200</v>
+      </c>
+      <c r="C52" t="s">
+        <v>204</v>
+      </c>
+      <c r="D52" t="s">
+        <v>207</v>
+      </c>
+      <c r="E52" t="s">
+        <v>386</v>
+      </c>
+      <c r="F52" t="s">
+        <v>387</v>
+      </c>
+      <c r="G52" t="s">
+        <v>12</v>
+      </c>
+      <c r="H52" t="s">
+        <v>388</v>
+      </c>
+      <c r="I52" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>390</v>
+      </c>
+      <c r="B53" t="s">
+        <v>391</v>
+      </c>
+      <c r="C53" t="s">
+        <v>90</v>
+      </c>
+      <c r="D53" t="s">
+        <v>305</v>
+      </c>
+      <c r="E53" t="s">
+        <v>51</v>
+      </c>
+      <c r="F53" t="s">
+        <v>93</v>
+      </c>
+      <c r="G53" t="s">
+        <v>12</v>
+      </c>
+      <c r="H53" t="s">
+        <v>392</v>
+      </c>
+      <c r="I53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>393</v>
+      </c>
+      <c r="B54" t="s">
+        <v>394</v>
+      </c>
+      <c r="C54" t="s">
+        <v>395</v>
+      </c>
+      <c r="D54" t="s">
+        <v>396</v>
+      </c>
+      <c r="E54" t="s">
+        <v>397</v>
+      </c>
+      <c r="F54" t="s">
+        <v>398</v>
+      </c>
+      <c r="G54" t="s">
+        <v>13</v>
+      </c>
+      <c r="H54" t="s">
+        <v>399</v>
+      </c>
+      <c r="I54" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>400</v>
+      </c>
+      <c r="B55" t="s">
+        <v>338</v>
+      </c>
+      <c r="C55" t="s">
+        <v>337</v>
+      </c>
+      <c r="D55" t="s">
+        <v>336</v>
+      </c>
+      <c r="E55" t="s">
+        <v>335</v>
+      </c>
+      <c r="F55" t="s">
+        <v>401</v>
+      </c>
+      <c r="G55" t="s">
+        <v>14</v>
+      </c>
+      <c r="H55" t="s">
+        <v>402</v>
+      </c>
+      <c r="I55" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>403</v>
+      </c>
+      <c r="B56" t="s">
+        <v>341</v>
+      </c>
+      <c r="C56" t="s">
+        <v>404</v>
+      </c>
+      <c r="D56" t="s">
+        <v>342</v>
+      </c>
+      <c r="E56" t="s">
+        <v>405</v>
+      </c>
+      <c r="F56" t="s">
+        <v>343</v>
+      </c>
+      <c r="G56" t="s">
+        <v>14</v>
+      </c>
+      <c r="H56" t="s">
+        <v>406</v>
+      </c>
+      <c r="I56" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>407</v>
+      </c>
+      <c r="B57" t="s">
+        <v>278</v>
+      </c>
+      <c r="C57" t="s">
+        <v>276</v>
+      </c>
+      <c r="D57" t="s">
+        <v>408</v>
+      </c>
+      <c r="E57" t="s">
+        <v>409</v>
+      </c>
+      <c r="F57" t="s">
+        <v>277</v>
+      </c>
+      <c r="G57" t="s">
+        <v>14</v>
+      </c>
+      <c r="H57" t="s">
+        <v>410</v>
+      </c>
+      <c r="I57" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>411</v>
+      </c>
+      <c r="B58" t="s">
+        <v>350</v>
+      </c>
+      <c r="C58" t="s">
+        <v>412</v>
+      </c>
+      <c r="D58" t="s">
+        <v>413</v>
+      </c>
+      <c r="E58" t="s">
+        <v>414</v>
+      </c>
+      <c r="F58" t="s">
+        <v>415</v>
+      </c>
+      <c r="G58" t="s">
+        <v>12</v>
+      </c>
+      <c r="H58" t="s">
+        <v>416</v>
+      </c>
+      <c r="I58" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>417</v>
+      </c>
+      <c r="B59" t="s">
+        <v>418</v>
+      </c>
+      <c r="C59" t="s">
+        <v>419</v>
+      </c>
+      <c r="D59" t="s">
+        <v>420</v>
+      </c>
+      <c r="E59" t="s">
+        <v>421</v>
+      </c>
+      <c r="F59" t="s">
+        <v>422</v>
+      </c>
+      <c r="G59" t="s">
+        <v>14</v>
+      </c>
+      <c r="H59" t="s">
+        <v>423</v>
+      </c>
+      <c r="I59" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>424</v>
+      </c>
+      <c r="B60" t="s">
+        <v>68</v>
+      </c>
+      <c r="C60" t="s">
+        <v>51</v>
+      </c>
+      <c r="D60" t="s">
+        <v>425</v>
+      </c>
+      <c r="E60" t="s">
+        <v>426</v>
+      </c>
+      <c r="F60" t="s">
+        <v>92</v>
+      </c>
+      <c r="G60" t="s">
+        <v>14</v>
+      </c>
+      <c r="H60" t="s">
+        <v>427</v>
+      </c>
+      <c r="I60" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>428</v>
+      </c>
+      <c r="B61" t="s">
+        <v>429</v>
+      </c>
+      <c r="C61" t="s">
+        <v>430</v>
+      </c>
+      <c r="D61" t="s">
+        <v>431</v>
+      </c>
+      <c r="E61" t="s">
+        <v>41</v>
+      </c>
+      <c r="F61" t="s">
+        <v>432</v>
+      </c>
+      <c r="G61" t="s">
+        <v>14</v>
+      </c>
+      <c r="H61" t="s">
+        <v>433</v>
+      </c>
+      <c r="I61" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H62" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I62" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B63" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C63" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D63" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E63" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F63" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G63" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H63" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I63" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>160</v>
-      </c>
-      <c r="B22" t="s">
-        <v>147</v>
-      </c>
-      <c r="C22" t="s">
-        <v>148</v>
-      </c>
-      <c r="D22" t="s">
-        <v>149</v>
-      </c>
-      <c r="E22" t="s">
-        <v>150</v>
-      </c>
-      <c r="F22" t="s">
-        <v>151</v>
-      </c>
-      <c r="G22" t="s">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G64" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H22" t="s">
-        <v>152</v>
-      </c>
-      <c r="I22" t="s">
-        <v>31</v>
+      <c r="H64" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I64" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H65" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="I65" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H66" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="I66" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H67" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="I67" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="G68" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H68" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="I68" s="7" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H69" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="I69" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H70" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="I70" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H71" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="I71" s="7" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H72" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="I72" s="7" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H73" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="I73" s="7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H74" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="I74" s="7" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H75" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="I75" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="G76" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H76" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="I76" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H77" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="I77" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="G78" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H78" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="I78" s="7" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="F79" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="G79" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H79" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="I79" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="G80" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H80" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="I80" s="7" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A81" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H81" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="I81" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A82" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="G82" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H82" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="I82" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A83" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="G83" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H83" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="I83" s="7" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A84" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="F84" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="G84" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H84" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="I84" s="7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A85" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="F85" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="G85" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H85" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="I85" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A86" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="F86" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="G86" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H86" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="I86" s="7" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A87" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="F87" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="G87" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H87" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="I87" s="7" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A88" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="F88" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="G88" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H88" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="I88" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A89" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F89" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G89" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H89" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="I89" s="7" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A90" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="F90" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G90" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H90" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="I90" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A91" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="F91" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="G91" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H91" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="I91" s="7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A92" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="F92" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="G92" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H92" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="I92" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A93" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="F93" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="G93" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H93" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="I93" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A94" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F94" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="G94" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H94" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="I94" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A95" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F95" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="G95" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H95" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="I95" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A96" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F96" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G96" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H96" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="I96" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A97" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="F97" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="G97" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H97" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="I97" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A98" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="F98" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G98" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H98" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="I98" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A99" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="F99" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="G99" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H99" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="I99" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A100" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E100" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="F100" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="G100" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H100" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="I100" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A101" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="E101" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="F101" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="G101" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H101" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="I101" s="7" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A102" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="E102" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="F102" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="G102" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H102" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="I102" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A103" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="E103" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="F103" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="G103" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H103" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="I103" s="7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A104" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="D104" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="E104" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="F104" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="G104" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H104" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="I104" s="7" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A105" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="E105" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F105" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="G105" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H105" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="I105" s="7" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>506</v>
+      </c>
+      <c r="B106">
+        <v>4</v>
+      </c>
+      <c r="C106">
+        <v>6</v>
+      </c>
+      <c r="D106">
+        <v>7</v>
+      </c>
+      <c r="E106">
+        <v>8</v>
+      </c>
+      <c r="F106">
+        <v>9</v>
+      </c>
+      <c r="G106" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H106" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="I106" s="7" t="s">
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -2023,20 +5763,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{589423D0-50CB-4F3F-82F4-CB353E932D78}">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C105"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="E103" sqref="E103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="52.6640625" customWidth="1"/>
-    <col min="2" max="2" width="9.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -2047,7 +5787,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>95</v>
       </c>
@@ -2058,7 +5798,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>106</v>
       </c>
@@ -2069,7 +5809,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>107</v>
       </c>
@@ -2080,7 +5820,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>108</v>
       </c>
@@ -2091,7 +5831,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>109</v>
       </c>
@@ -2102,7 +5842,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>99</v>
       </c>
@@ -2113,7 +5853,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>100</v>
       </c>
@@ -2124,7 +5864,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>101</v>
       </c>
@@ -2135,7 +5875,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>103</v>
       </c>
@@ -2146,7 +5886,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>104</v>
       </c>
@@ -2157,7 +5897,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>96</v>
       </c>
@@ -2168,7 +5908,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>98</v>
       </c>
@@ -2179,7 +5919,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>107</v>
       </c>
@@ -2190,7 +5930,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>108</v>
       </c>
@@ -2201,7 +5941,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>101</v>
       </c>
@@ -2212,7 +5952,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>98</v>
       </c>
@@ -2223,9 +5963,9 @@
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>0</v>
@@ -2234,9 +5974,9 @@
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>54</v>
@@ -2245,9 +5985,9 @@
         <v>97</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>0</v>
@@ -2256,9 +5996,9 @@
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>54</v>
@@ -2267,9 +6007,9 @@
         <v>97</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>54</v>
@@ -2278,9 +6018,9 @@
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>0</v>
@@ -2289,7 +6029,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>99</v>
       </c>
@@ -2300,7 +6040,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>100</v>
       </c>
@@ -2311,7 +6051,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>101</v>
       </c>
@@ -2322,7 +6062,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>103</v>
       </c>
@@ -2333,7 +6073,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>104</v>
       </c>
@@ -2344,9 +6084,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>0</v>
@@ -2355,9 +6095,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>0</v>
@@ -2366,9 +6106,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>54</v>
@@ -2377,9 +6117,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>0</v>
@@ -2388,9 +6128,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>54</v>
@@ -2399,9 +6139,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>0</v>
@@ -2410,9 +6150,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>54</v>
@@ -2421,9 +6161,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>54</v>
@@ -2432,9 +6172,9 @@
         <v>105</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>0</v>
@@ -2443,9 +6183,9 @@
         <v>105</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>54</v>
@@ -2454,9 +6194,9 @@
         <v>105</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>0</v>
@@ -2465,9 +6205,9 @@
         <v>105</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>54</v>
@@ -2476,9 +6216,9 @@
         <v>105</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>0</v>
@@ -2487,7 +6227,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>106</v>
       </c>
@@ -2498,7 +6238,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>107</v>
       </c>
@@ -2509,7 +6249,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>108</v>
       </c>
@@ -2520,7 +6260,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>109</v>
       </c>
@@ -2529,6 +6269,666 @@
       </c>
       <c r="C45" s="2" t="s">
         <v>105</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="7" t="s">
+        <v>631</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="7" t="s">
+        <v>632</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="7" t="s">
+        <v>635</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="7" t="s">
+        <v>639</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="7" t="s">
+        <v>640</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="7" t="s">
+        <v>641</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="7" t="s">
+        <v>645</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="7" t="s">
+        <v>646</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="7" t="s">
+        <v>647</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="7" t="s">
+        <v>648</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="7" t="s">
+        <v>652</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" s="7" t="s">
+        <v>654</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" s="7" t="s">
+        <v>656</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>505</v>
       </c>
     </row>
   </sheetData>
@@ -2540,18 +6940,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCFE4AC3-D33B-41F7-AFE1-650B291E6FA6}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="70.5" customWidth="1"/>
-    <col min="2" max="2" width="20.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="70.44140625" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.77734375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -2562,7 +6962,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -2573,7 +6973,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -2584,7 +6984,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -2595,7 +6995,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>63</v>
       </c>
@@ -2606,7 +7006,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -2617,7 +7017,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>110</v>
       </c>
@@ -2628,7 +7028,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>112</v>
       </c>
@@ -2639,7 +7039,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>114</v>
       </c>
@@ -2650,9 +7050,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>65</v>
@@ -2661,9 +7061,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>66</v>
@@ -2672,75 +7072,75 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="C12" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="C12" s="6" t="s">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
+      <c r="B13" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="C13" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
+      <c r="B14" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="C14" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="C14" s="6" t="s">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
         <v>189</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
-        <v>190</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>120</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="C16" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C16" s="6" t="s">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
+      <c r="B17" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="C17" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
         <v>195</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
-        <v>196</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>87</v>
@@ -2749,9 +7149,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>86</v>
@@ -2760,9 +7160,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>51</v>
@@ -2771,9 +7171,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>68</v>
@@ -2782,114 +7182,114 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="C22" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
+      <c r="B23" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="C23" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
+      <c r="B24" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="C24" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="C24" s="6" t="s">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
+      <c r="B25" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="C25" s="6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
+      <c r="B26" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="C26" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="C26" s="6" t="s">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
+      <c r="B27" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="C27" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
+      <c r="B28" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="C28" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="C28" s="6" t="s">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="6" t="s">
+      <c r="B29" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="C29" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="6" t="s">
+      <c r="B30" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="C30" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="C30" s="6" t="s">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="6" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="6" t="s">
+      <c r="B31" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>223</v>
-      </c>
       <c r="C31" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -2901,19 +7301,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E15F7917-4FC8-4FF7-B762-EA8CF8ABB661}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="44.5" style="2" customWidth="1"/>
+    <col min="1" max="1" width="44.44140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="35.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -2927,7 +7327,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -2941,7 +7341,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -2955,7 +7355,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>56</v>
       </c>
@@ -2969,7 +7369,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>59</v>
       </c>
@@ -2983,52 +7383,52 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
     </row>
   </sheetData>
